--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/79/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/79/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.55712</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1557.12</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,21 +488,21 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>1.75718</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>1757.18</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12401</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>1.9267</v>
+        <v>4.39966</v>
       </c>
       <c r="C6" t="n">
-        <v>1926.7</v>
+        <v>4399.66</v>
       </c>
     </row>
     <row r="7">
@@ -510,120 +510,120 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>1.99785</v>
+        <v>5.19725</v>
       </c>
       <c r="C7" t="n">
-        <v>1997.85</v>
+        <v>5197.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186017</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>2.04171</v>
+        <v>5.55319</v>
       </c>
       <c r="C8" t="n">
-        <v>2041.71</v>
+        <v>5553.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216993</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>2.0753</v>
+        <v>5.66791</v>
       </c>
       <c r="C9" t="n">
-        <v>2075.3</v>
+        <v>5667.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247969</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>2.10221</v>
+        <v>5.72061</v>
       </c>
       <c r="C10" t="n">
-        <v>2102.21</v>
+        <v>5720.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278897</v>
+        <v>0.278893</v>
       </c>
       <c r="B11" t="n">
-        <v>2.12294</v>
+        <v>5.76819</v>
       </c>
       <c r="C11" t="n">
-        <v>2122.94</v>
+        <v>5768.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309823</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>2.14438</v>
+        <v>5.81001</v>
       </c>
       <c r="C12" t="n">
-        <v>2144.38</v>
+        <v>5810.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340748</v>
+        <v>0.340743</v>
       </c>
       <c r="B13" t="n">
-        <v>2.16148</v>
+        <v>5.85017</v>
       </c>
       <c r="C13" t="n">
-        <v>2161.48</v>
+        <v>5850.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371673</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>2.17739</v>
+        <v>5.886520000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>2177.39</v>
+        <v>5886.52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402598</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>2.19311</v>
+        <v>5.92125</v>
       </c>
       <c r="C15" t="n">
-        <v>2193.11</v>
+        <v>5921.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433523</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>2.20724</v>
+        <v>5.95341</v>
       </c>
       <c r="C16" t="n">
-        <v>2207.24</v>
+        <v>5953.41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464448</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>2.22002</v>
+        <v>5.98357</v>
       </c>
       <c r="C17" t="n">
-        <v>2220.02</v>
+        <v>5983.57</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>2.23195</v>
+        <v>6.01173</v>
       </c>
       <c r="C18" t="n">
-        <v>2231.95</v>
+        <v>6011.73</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>2.24329</v>
+        <v>6.03832</v>
       </c>
       <c r="C19" t="n">
-        <v>2243.29</v>
+        <v>6038.32</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>2.25404</v>
+        <v>6.064550000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>2254.04</v>
+        <v>6064.55</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>2.26428</v>
+        <v>6.08967</v>
       </c>
       <c r="C21" t="n">
-        <v>2264.28</v>
+        <v>6089.67</v>
       </c>
     </row>
     <row r="22">
@@ -675,54 +675,54 @@
         <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>2.27404</v>
+        <v>6.11312</v>
       </c>
       <c r="C22" t="n">
-        <v>2274.04</v>
+        <v>6113.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650362</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>2.28334</v>
+        <v>6.13645</v>
       </c>
       <c r="C23" t="n">
-        <v>2283.34</v>
+        <v>6136.45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681535</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>2.2922</v>
+        <v>6.15868</v>
       </c>
       <c r="C24" t="n">
-        <v>2292.2</v>
+        <v>6158.68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712708</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>2.30064</v>
+        <v>6.1801</v>
       </c>
       <c r="C25" t="n">
-        <v>2300.64</v>
+        <v>6180.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743885</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>2.3087</v>
+        <v>6.20079</v>
       </c>
       <c r="C26" t="n">
-        <v>2308.7</v>
+        <v>6200.79</v>
       </c>
     </row>
     <row r="27">
@@ -730,32 +730,32 @@
         <v>0.775057</v>
       </c>
       <c r="B27" t="n">
-        <v>2.31642</v>
+        <v>6.22085</v>
       </c>
       <c r="C27" t="n">
-        <v>2316.42</v>
+        <v>6220.85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.80623</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>2.3238</v>
+        <v>6.2403</v>
       </c>
       <c r="C28" t="n">
-        <v>2323.8</v>
+        <v>6240.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837407</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>2.33089</v>
+        <v>6.2591</v>
       </c>
       <c r="C29" t="n">
-        <v>2330.89</v>
+        <v>6259.1</v>
       </c>
     </row>
     <row r="30">
@@ -763,32 +763,32 @@
         <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>2.33769</v>
+        <v>6.27729</v>
       </c>
       <c r="C30" t="n">
-        <v>2337.69</v>
+        <v>6277.29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899756</v>
+        <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>2.34423</v>
+        <v>6.295020000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>2344.23</v>
+        <v>6295.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930929</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>2.35054</v>
+        <v>6.31226</v>
       </c>
       <c r="C32" t="n">
-        <v>2350.54</v>
+        <v>6312.26</v>
       </c>
     </row>
     <row r="33">
@@ -796,54 +796,54 @@
         <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>2.35659</v>
+        <v>6.32901</v>
       </c>
       <c r="C33" t="n">
-        <v>2356.59</v>
+        <v>6329.01</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993278</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>2.36242</v>
+        <v>6.3453</v>
       </c>
       <c r="C34" t="n">
-        <v>2362.42</v>
+        <v>6345.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02459</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>2.36805</v>
+        <v>6.36116</v>
       </c>
       <c r="C35" t="n">
-        <v>2368.05</v>
+        <v>6361.16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05597</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>2.37348</v>
+        <v>6.376609999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>2373.48</v>
+        <v>6376.61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08735</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>2.37871</v>
+        <v>6.39167</v>
       </c>
       <c r="C37" t="n">
-        <v>2378.71</v>
+        <v>6391.67</v>
       </c>
     </row>
     <row r="38">
@@ -851,32 +851,32 @@
         <v>1.11873</v>
       </c>
       <c r="B38" t="n">
-        <v>2.38378</v>
+        <v>6.40632</v>
       </c>
       <c r="C38" t="n">
-        <v>2383.78</v>
+        <v>6406.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15011</v>
+        <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>2.38865</v>
+        <v>6.42061</v>
       </c>
       <c r="C39" t="n">
-        <v>2388.65</v>
+        <v>6420.61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18149</v>
+        <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>2.39336</v>
+        <v>6.434550000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>2393.36</v>
+        <v>6434.55</v>
       </c>
     </row>
     <row r="41">
@@ -884,681 +884,681 @@
         <v>1.21287</v>
       </c>
       <c r="B41" t="n">
-        <v>2.39789</v>
+        <v>6.448180000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>2397.89</v>
+        <v>6448.18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24392</v>
+        <v>1.24425</v>
       </c>
       <c r="B42" t="n">
-        <v>2.40229</v>
+        <v>6.4615</v>
       </c>
       <c r="C42" t="n">
-        <v>2402.29</v>
+        <v>6461.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27489</v>
+        <v>1.27562</v>
       </c>
       <c r="B43" t="n">
-        <v>2.40651</v>
+        <v>6.47449</v>
       </c>
       <c r="C43" t="n">
-        <v>2406.51</v>
+        <v>6474.49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30586</v>
+        <v>1.30701</v>
       </c>
       <c r="B44" t="n">
-        <v>2.4106</v>
+        <v>6.48719</v>
       </c>
       <c r="C44" t="n">
-        <v>2410.6</v>
+        <v>6487.19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33683</v>
+        <v>1.33839</v>
       </c>
       <c r="B45" t="n">
-        <v>2.41453</v>
+        <v>6.49961</v>
       </c>
       <c r="C45" t="n">
-        <v>2414.53</v>
+        <v>6499.61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36779</v>
+        <v>1.36977</v>
       </c>
       <c r="B46" t="n">
-        <v>2.41833</v>
+        <v>6.51174</v>
       </c>
       <c r="C46" t="n">
-        <v>2418.33</v>
+        <v>6511.74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39876</v>
+        <v>1.40115</v>
       </c>
       <c r="B47" t="n">
-        <v>2.42199</v>
+        <v>6.52362</v>
       </c>
       <c r="C47" t="n">
-        <v>2421.99</v>
+        <v>6523.62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42973</v>
+        <v>1.43253</v>
       </c>
       <c r="B48" t="n">
-        <v>2.42551</v>
+        <v>6.535229999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>2425.51</v>
+        <v>6535.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.4607</v>
+        <v>1.46391</v>
       </c>
       <c r="B49" t="n">
-        <v>2.42891</v>
+        <v>6.546609999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>2428.91</v>
+        <v>6546.61</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49166</v>
+        <v>1.49529</v>
       </c>
       <c r="B50" t="n">
-        <v>2.43218</v>
+        <v>6.557729999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>2432.18</v>
+        <v>6557.73</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52263</v>
+        <v>1.52667</v>
       </c>
       <c r="B51" t="n">
-        <v>2.43533</v>
+        <v>6.56858</v>
       </c>
       <c r="C51" t="n">
-        <v>2435.33</v>
+        <v>6568.58</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.5536</v>
+        <v>1.55805</v>
       </c>
       <c r="B52" t="n">
-        <v>2.43836</v>
+        <v>6.57922</v>
       </c>
       <c r="C52" t="n">
-        <v>2438.36</v>
+        <v>6579.22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58428</v>
+        <v>1.58943</v>
       </c>
       <c r="B53" t="n">
-        <v>2.44129</v>
+        <v>6.58961</v>
       </c>
       <c r="C53" t="n">
-        <v>2441.29</v>
+        <v>6589.61</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61483</v>
+        <v>1.62081</v>
       </c>
       <c r="B54" t="n">
-        <v>2.44409</v>
+        <v>6.59979</v>
       </c>
       <c r="C54" t="n">
-        <v>2444.09</v>
+        <v>6599.79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64538</v>
+        <v>1.65219</v>
       </c>
       <c r="B55" t="n">
-        <v>2.4468</v>
+        <v>6.60975</v>
       </c>
       <c r="C55" t="n">
-        <v>2446.8</v>
+        <v>6609.75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67594</v>
+        <v>1.68349</v>
       </c>
       <c r="B56" t="n">
-        <v>2.4494</v>
+        <v>6.6195</v>
       </c>
       <c r="C56" t="n">
-        <v>2449.4</v>
+        <v>6619.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70649</v>
+        <v>1.71446</v>
       </c>
       <c r="B57" t="n">
-        <v>2.45189</v>
+        <v>6.629020000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>2451.89</v>
+        <v>6629.02</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73705</v>
+        <v>1.74542</v>
       </c>
       <c r="B58" t="n">
-        <v>2.45429</v>
+        <v>6.63836</v>
       </c>
       <c r="C58" t="n">
-        <v>2454.29</v>
+        <v>6638.36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76862</v>
+        <v>1.77639</v>
       </c>
       <c r="B59" t="n">
-        <v>2.45666</v>
+        <v>6.647460000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>2456.66</v>
+        <v>6647.46</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.8002</v>
+        <v>1.80736</v>
       </c>
       <c r="B60" t="n">
-        <v>2.45893</v>
+        <v>6.65638</v>
       </c>
       <c r="C60" t="n">
-        <v>2458.93</v>
+        <v>6656.38</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83177</v>
+        <v>1.83833</v>
       </c>
       <c r="B61" t="n">
-        <v>2.4611</v>
+        <v>6.66508</v>
       </c>
       <c r="C61" t="n">
-        <v>2461.1</v>
+        <v>6665.08</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86296</v>
+        <v>1.86929</v>
       </c>
       <c r="B62" t="n">
-        <v>2.46318</v>
+        <v>6.6736</v>
       </c>
       <c r="C62" t="n">
-        <v>2463.18</v>
+        <v>6673.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89411</v>
+        <v>1.90026</v>
       </c>
       <c r="B63" t="n">
-        <v>2.46515</v>
+        <v>6.68193</v>
       </c>
       <c r="C63" t="n">
-        <v>2465.15</v>
+        <v>6681.93</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92526</v>
+        <v>1.93123</v>
       </c>
       <c r="B64" t="n">
-        <v>2.46704</v>
+        <v>6.69007</v>
       </c>
       <c r="C64" t="n">
-        <v>2467.04</v>
+        <v>6690.07</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.9564</v>
+        <v>1.96219</v>
       </c>
       <c r="B65" t="n">
-        <v>2.46882</v>
+        <v>6.69803</v>
       </c>
       <c r="C65" t="n">
-        <v>2468.82</v>
+        <v>6698.03</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98755</v>
+        <v>1.99317</v>
       </c>
       <c r="B66" t="n">
-        <v>2.47051</v>
+        <v>6.70579</v>
       </c>
       <c r="C66" t="n">
-        <v>2470.51</v>
+        <v>6705.79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01854</v>
+        <v>2.02388</v>
       </c>
       <c r="B67" t="n">
-        <v>2.47211</v>
+        <v>6.71339</v>
       </c>
       <c r="C67" t="n">
-        <v>2472.11</v>
+        <v>6713.39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04926</v>
+        <v>2.05444</v>
       </c>
       <c r="B68" t="n">
-        <v>2.47363</v>
+        <v>6.72083</v>
       </c>
       <c r="C68" t="n">
-        <v>2473.63</v>
+        <v>6720.83</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07998</v>
+        <v>2.08499</v>
       </c>
       <c r="B69" t="n">
-        <v>2.47505</v>
+        <v>6.72808</v>
       </c>
       <c r="C69" t="n">
-        <v>2475.05</v>
+        <v>6728.08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.1107</v>
+        <v>2.11554</v>
       </c>
       <c r="B70" t="n">
-        <v>2.47639</v>
+        <v>6.73517</v>
       </c>
       <c r="C70" t="n">
-        <v>2476.39</v>
+        <v>6735.17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14142</v>
+        <v>2.1461</v>
       </c>
       <c r="B71" t="n">
-        <v>2.47765</v>
+        <v>6.74212</v>
       </c>
       <c r="C71" t="n">
-        <v>2477.65</v>
+        <v>6742.12</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17214</v>
+        <v>2.17665</v>
       </c>
       <c r="B72" t="n">
-        <v>2.47881</v>
+        <v>6.748880000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>2478.81</v>
+        <v>6748.88</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20286</v>
+        <v>2.20721</v>
       </c>
       <c r="B73" t="n">
-        <v>2.4799</v>
+        <v>6.755500000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>2479.9</v>
+        <v>6755.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23358</v>
+        <v>2.23777</v>
       </c>
       <c r="B74" t="n">
-        <v>2.4809</v>
+        <v>6.76194</v>
       </c>
       <c r="C74" t="n">
-        <v>2480.9</v>
+        <v>6761.94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.2643</v>
+        <v>2.269</v>
       </c>
       <c r="B75" t="n">
-        <v>2.48181</v>
+        <v>6.7684</v>
       </c>
       <c r="C75" t="n">
-        <v>2481.81</v>
+        <v>6768.4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29502</v>
+        <v>2.30057</v>
       </c>
       <c r="B76" t="n">
-        <v>2.48265</v>
+        <v>6.774760000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>2482.65</v>
+        <v>6774.76</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32576</v>
+        <v>2.33214</v>
       </c>
       <c r="B77" t="n">
-        <v>2.48341</v>
+        <v>6.780939999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>2483.41</v>
+        <v>6780.94</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35754</v>
+        <v>2.36371</v>
       </c>
       <c r="B78" t="n">
-        <v>2.48409</v>
+        <v>6.78698</v>
       </c>
       <c r="C78" t="n">
-        <v>2484.09</v>
+        <v>6786.98</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38932</v>
+        <v>2.39529</v>
       </c>
       <c r="B79" t="n">
-        <v>2.4847</v>
+        <v>6.79287</v>
       </c>
       <c r="C79" t="n">
-        <v>2484.7</v>
+        <v>6792.87</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42106</v>
+        <v>2.42686</v>
       </c>
       <c r="B80" t="n">
-        <v>2.48521</v>
+        <v>6.7986</v>
       </c>
       <c r="C80" t="n">
-        <v>2485.21</v>
+        <v>6798.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45105</v>
+        <v>2.45843</v>
       </c>
       <c r="B81" t="n">
-        <v>2.48562</v>
+        <v>6.804180000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>2485.62</v>
+        <v>6804.18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48092</v>
+        <v>2.49001</v>
       </c>
       <c r="B82" t="n">
-        <v>2.48594</v>
+        <v>6.80961</v>
       </c>
       <c r="C82" t="n">
-        <v>2485.94</v>
+        <v>6809.61</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51079</v>
+        <v>2.52158</v>
       </c>
       <c r="B83" t="n">
-        <v>2.48617</v>
+        <v>6.8149</v>
       </c>
       <c r="C83" t="n">
-        <v>2486.17</v>
+        <v>6814.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54066</v>
+        <v>2.55316</v>
       </c>
       <c r="B84" t="n">
-        <v>2.48633</v>
+        <v>6.820040000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>2486.33</v>
+        <v>6820.04</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57065</v>
+        <v>2.5839</v>
       </c>
       <c r="B85" t="n">
-        <v>2.48641</v>
+        <v>6.825060000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>2486.41</v>
+        <v>6825.06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60265</v>
+        <v>2.61462</v>
       </c>
       <c r="B86" t="n">
-        <v>2.4864</v>
+        <v>6.82991</v>
       </c>
       <c r="C86" t="n">
-        <v>2486.4</v>
+        <v>6829.91</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63465</v>
+        <v>2.64534</v>
       </c>
       <c r="B87" t="n">
-        <v>2.48627</v>
+        <v>6.834630000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>2486.27</v>
+        <v>6834.63</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66665</v>
+        <v>2.67606</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48606</v>
+        <v>6.83921</v>
       </c>
       <c r="C88" t="n">
-        <v>2486.06</v>
+        <v>6839.21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69865</v>
+        <v>2.70678</v>
       </c>
       <c r="B89" t="n">
-        <v>2.48573</v>
+        <v>6.84366</v>
       </c>
       <c r="C89" t="n">
-        <v>2485.73</v>
+        <v>6843.66</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73065</v>
+        <v>2.7375</v>
       </c>
       <c r="B90" t="n">
-        <v>2.48531</v>
+        <v>6.847939999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>2485.31</v>
+        <v>6847.94</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76265</v>
+        <v>2.76822</v>
       </c>
       <c r="B91" t="n">
-        <v>2.48479</v>
+        <v>6.8521</v>
       </c>
       <c r="C91" t="n">
-        <v>2484.79</v>
+        <v>6852.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79442</v>
+        <v>2.79894</v>
       </c>
       <c r="B92" t="n">
-        <v>2.48416</v>
+        <v>6.856140000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>2484.16</v>
+        <v>6856.14</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82551</v>
+        <v>2.82966</v>
       </c>
       <c r="B93" t="n">
-        <v>2.48343</v>
+        <v>6.86002</v>
       </c>
       <c r="C93" t="n">
-        <v>2483.43</v>
+        <v>6860.02</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85659</v>
+        <v>2.86038</v>
       </c>
       <c r="B94" t="n">
-        <v>2.48259</v>
+        <v>6.86376</v>
       </c>
       <c r="C94" t="n">
-        <v>2482.59</v>
+        <v>6863.76</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88768</v>
+        <v>2.8911</v>
       </c>
       <c r="B95" t="n">
-        <v>2.48167</v>
+        <v>6.86735</v>
       </c>
       <c r="C95" t="n">
-        <v>2481.67</v>
+        <v>6867.35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91877</v>
+        <v>2.92182</v>
       </c>
       <c r="B96" t="n">
-        <v>2.48062</v>
+        <v>6.870810000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>2480.62</v>
+        <v>6870.81</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94985</v>
+        <v>2.95254</v>
       </c>
       <c r="B97" t="n">
-        <v>2.47948</v>
+        <v>6.87413</v>
       </c>
       <c r="C97" t="n">
-        <v>2479.48</v>
+        <v>6874.13</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98094</v>
+        <v>2.98326</v>
       </c>
       <c r="B98" t="n">
-        <v>2.47823</v>
+        <v>6.87732</v>
       </c>
       <c r="C98" t="n">
-        <v>2478.23</v>
+        <v>6877.32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01202</v>
+        <v>3.01398</v>
       </c>
       <c r="B99" t="n">
-        <v>2.47685</v>
+        <v>6.8804</v>
       </c>
       <c r="C99" t="n">
-        <v>2476.85</v>
+        <v>6880.4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04311</v>
+        <v>3.0447</v>
       </c>
       <c r="B100" t="n">
-        <v>2.47533</v>
+        <v>6.88333</v>
       </c>
       <c r="C100" t="n">
-        <v>2475.33</v>
+        <v>6883.33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07419</v>
+        <v>3.07542</v>
       </c>
       <c r="B101" t="n">
-        <v>2.4737</v>
+        <v>6.88612</v>
       </c>
       <c r="C101" t="n">
-        <v>2473.7</v>
+        <v>6886.12</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10528</v>
+        <v>3.10614</v>
       </c>
       <c r="B102" t="n">
-        <v>2.47193</v>
+        <v>6.88878</v>
       </c>
       <c r="C102" t="n">
-        <v>2471.93</v>
+        <v>6888.78</v>
       </c>
     </row>
   </sheetData>
